--- a/data/terrain.xlsx
+++ b/data/terrain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hghos\Documents\Perso_APH\travail\ENSG-Géomatique\POO\Projet\COUDERC-HOSTEIN-LANCHA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465871E7-068B-479B-AAA4-E79A85D13B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F6C599-FC6B-4046-B34F-7EB76DD4C0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF96B166-02CE-447C-B2BB-029EF137380B}"/>
   </bookViews>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F280D1FC-DF26-40C3-B7BD-474909A5227D}">
   <dimension ref="A1:DG108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK93" activeCellId="7" sqref="BU85:BV87 BO101:BP101 BE101:BF101 AZ101 AS99:AU100 AL98:AM98 AH96:AH97 AI92:AK93"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CN68" sqref="CL68:CN68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18720,19 +18720,19 @@
         <v>5</v>
       </c>
       <c r="BK55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BL55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BM55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BN55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BO55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BP55">
         <v>5</v>
@@ -19055,19 +19055,19 @@
         <v>5</v>
       </c>
       <c r="BK56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BL56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BM56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BN56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BO56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BP56">
         <v>5</v>
@@ -19390,19 +19390,19 @@
         <v>5</v>
       </c>
       <c r="BK57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BL57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BM57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BN57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BO57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BP57">
         <v>5</v>
@@ -19716,25 +19716,25 @@
         <v>5</v>
       </c>
       <c r="BH58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BI58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BJ58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BK58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BL58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BM58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BN58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BO58">
         <v>5</v>
@@ -20051,25 +20051,25 @@
         <v>5</v>
       </c>
       <c r="BH59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BI59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BJ59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BK59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BL59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BM59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BN59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BO59">
         <v>5</v>
@@ -20081,19 +20081,19 @@
         <v>5</v>
       </c>
       <c r="BR59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BV59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW59">
         <v>5</v>
@@ -20392,19 +20392,19 @@
         <v>5</v>
       </c>
       <c r="BJ60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BK60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BL60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BM60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BN60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BO60">
         <v>5</v>
@@ -20416,19 +20416,19 @@
         <v>5</v>
       </c>
       <c r="BR60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BV60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW60">
         <v>5</v>
@@ -20751,19 +20751,19 @@
         <v>5</v>
       </c>
       <c r="BR61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BV61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW61">
         <v>5</v>
@@ -20924,22 +20924,22 @@
         <v>1</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R62">
         <v>1</v>
       </c>
       <c r="S62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V62">
         <v>1</v>
@@ -21086,19 +21086,19 @@
         <v>5</v>
       </c>
       <c r="BR62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BV62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW62">
         <v>5</v>
@@ -23135,34 +23135,34 @@
         <v>5</v>
       </c>
       <c r="CE68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CF68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CG68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CH68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CI68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CJ68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CK68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CL68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CM68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CN68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CO68">
         <v>5</v>
@@ -23485,10 +23485,10 @@
         <v>5</v>
       </c>
       <c r="CJ69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CK69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CL69">
         <v>5</v>
@@ -23820,10 +23820,10 @@
         <v>5</v>
       </c>
       <c r="CJ70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CK70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CL70">
         <v>5</v>
@@ -24128,37 +24128,37 @@
         <v>3</v>
       </c>
       <c r="CA71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CD71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CE71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CF71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CH71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CK71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CL71">
         <v>5</v>
@@ -24463,37 +24463,37 @@
         <v>5</v>
       </c>
       <c r="CA72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CD72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CE72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CF72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CH72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CK72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CL72">
         <v>5</v>
@@ -24798,10 +24798,10 @@
         <v>5</v>
       </c>
       <c r="CA73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC73">
         <v>5</v>
@@ -25133,10 +25133,10 @@
         <v>5</v>
       </c>
       <c r="CA74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC74">
         <v>5</v>
@@ -25432,46 +25432,46 @@
         <v>4</v>
       </c>
       <c r="BO75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BQ75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BR75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BS75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BT75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BU75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BV75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BW75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZ75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CA75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC75">
         <v>5</v>
@@ -25767,46 +25767,46 @@
         <v>4</v>
       </c>
       <c r="BO76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BQ76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BR76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BS76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BT76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BU76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BV76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BW76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZ76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CA76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC76">
         <v>5</v>
@@ -26102,10 +26102,10 @@
         <v>4</v>
       </c>
       <c r="BO77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BP77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ77">
         <v>5</v>
@@ -26138,10 +26138,10 @@
         <v>5</v>
       </c>
       <c r="CA77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC77">
         <v>5</v>
@@ -26473,10 +26473,10 @@
         <v>5</v>
       </c>
       <c r="CA78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC78">
         <v>5</v>
@@ -26808,10 +26808,10 @@
         <v>5</v>
       </c>
       <c r="CA79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC79">
         <v>5</v>
@@ -27107,7 +27107,7 @@
         <v>4</v>
       </c>
       <c r="BO80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BP80">
         <v>5</v>
@@ -27143,10 +27143,10 @@
         <v>5</v>
       </c>
       <c r="CA80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC80">
         <v>5</v>
@@ -27442,7 +27442,7 @@
         <v>4</v>
       </c>
       <c r="BO81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BP81">
         <v>5</v>
@@ -27478,10 +27478,10 @@
         <v>5</v>
       </c>
       <c r="CA81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC81">
         <v>5</v>
@@ -27621,34 +27621,34 @@
         <v>5</v>
       </c>
       <c r="O82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y82">
         <v>4</v>
@@ -27813,10 +27813,10 @@
         <v>5</v>
       </c>
       <c r="CA82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC82">
         <v>5</v>
@@ -27956,34 +27956,34 @@
         <v>5</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y83">
         <v>4</v>
@@ -28148,10 +28148,10 @@
         <v>5</v>
       </c>
       <c r="CA83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC83">
         <v>5</v>
@@ -28291,10 +28291,10 @@
         <v>5</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -28483,10 +28483,10 @@
         <v>5</v>
       </c>
       <c r="CA84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC84">
         <v>5</v>
@@ -28626,31 +28626,31 @@
         <v>5</v>
       </c>
       <c r="O85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q85">
         <v>5</v>
       </c>
       <c r="R85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S85">
         <v>5</v>
       </c>
       <c r="T85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X85">
         <v>5</v>
@@ -28818,10 +28818,10 @@
         <v>5</v>
       </c>
       <c r="CA85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC85">
         <v>5</v>
@@ -28961,16 +28961,16 @@
         <v>5</v>
       </c>
       <c r="O86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q86">
         <v>5</v>
       </c>
       <c r="R86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S86">
         <v>5</v>
@@ -28985,7 +28985,7 @@
         <v>5</v>
       </c>
       <c r="W86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X86">
         <v>5</v>
@@ -29153,10 +29153,10 @@
         <v>5</v>
       </c>
       <c r="CA86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC86">
         <v>5</v>
@@ -29296,16 +29296,16 @@
         <v>5</v>
       </c>
       <c r="O87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q87">
         <v>5</v>
       </c>
       <c r="R87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S87">
         <v>5</v>
@@ -29320,7 +29320,7 @@
         <v>5</v>
       </c>
       <c r="W87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X87">
         <v>5</v>
@@ -29488,10 +29488,10 @@
         <v>5</v>
       </c>
       <c r="CA87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC87">
         <v>5</v>
@@ -29631,31 +29631,31 @@
         <v>5</v>
       </c>
       <c r="O88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q88">
         <v>5</v>
       </c>
       <c r="R88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X88">
         <v>5</v>
@@ -29823,10 +29823,10 @@
         <v>5</v>
       </c>
       <c r="CA88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC88">
         <v>5</v>
@@ -29966,10 +29966,10 @@
         <v>5</v>
       </c>
       <c r="O89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -30158,10 +30158,10 @@
         <v>5</v>
       </c>
       <c r="CA89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC89">
         <v>5</v>
@@ -30301,34 +30301,34 @@
         <v>5</v>
       </c>
       <c r="O90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y90">
         <v>4</v>
@@ -30457,7 +30457,7 @@
         <v>4</v>
       </c>
       <c r="BO90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BP90">
         <v>5</v>
@@ -30493,16 +30493,16 @@
         <v>5</v>
       </c>
       <c r="CA90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CD90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CE90">
         <v>5</v>
@@ -30636,34 +30636,34 @@
         <v>5</v>
       </c>
       <c r="O91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y91">
         <v>4</v>
@@ -30792,25 +30792,25 @@
         <v>4</v>
       </c>
       <c r="BO91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BP91">
         <v>5</v>
       </c>
       <c r="BQ91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BR91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BS91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BT91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BU91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BV91">
         <v>5</v>
@@ -30828,16 +30828,16 @@
         <v>5</v>
       </c>
       <c r="CA91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CD91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CE91">
         <v>5</v>

--- a/data/terrain.xlsx
+++ b/data/terrain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melan\Documents\GitHub\COUDERC-HOSTEIN-LANCHA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{00724258-F2DE-4E0C-B1A0-2F19EEFC53DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF98E99-792D-45E2-876B-80CD27D11595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EF96B166-02CE-447C-B2BB-029EF137380B}"/>
   </bookViews>
@@ -61,7 +61,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -71,29 +71,22 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.499984740745262"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC6600"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF002060"/>
+          <bgColor rgb="FFCC6600"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCC6600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -135,6 +128,48 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFCC6600"/>
         </patternFill>
@@ -143,6 +178,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFCC6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFCC6600"/>
         </patternFill>
       </fill>
@@ -467,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F280D1FC-DF26-40C3-B7BD-474909A5227D}">
   <dimension ref="A1:DG108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="44" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BO21" sqref="BO21"/>
+    <sheetView tabSelected="1" topLeftCell="L11" zoomScale="84" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="AZ95" sqref="AZ95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -481,23 +523,25 @@
     <col min="18" max="25" width="3.08984375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="3.6328125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="2.453125" customWidth="1"/>
-    <col min="28" max="50" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="33" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="50" width="3.7265625" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="2.453125" customWidth="1"/>
-    <col min="52" max="52" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="56" max="71" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="56" max="67" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="71" width="2.90625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="2.453125" customWidth="1"/>
-    <col min="73" max="87" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="73" max="85" width="2.90625" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="2.453125" customWidth="1"/>
-    <col min="89" max="91" width="2.6328125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="93" max="102" width="2.6328125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="2.54296875" bestFit="1" customWidth="1"/>
+    <col min="89" max="91" width="2.90625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="93" max="103" width="2.90625" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="2.453125" customWidth="1"/>
-    <col min="105" max="106" width="2.54296875" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="2.90625" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="2" customWidth="1"/>
-    <col min="108" max="111" width="2" bestFit="1" customWidth="1"/>
+    <col min="108" max="111" width="2.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:111" x14ac:dyDescent="0.35">
@@ -2010,10 +2054,10 @@
         <v>6</v>
       </c>
       <c r="BE5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG5">
         <v>6</v>
@@ -2345,10 +2389,10 @@
         <v>6</v>
       </c>
       <c r="BE6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG6">
         <v>6</v>
@@ -2680,10 +2724,10 @@
         <v>6</v>
       </c>
       <c r="BE7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG7">
         <v>6</v>
@@ -3015,10 +3059,10 @@
         <v>6</v>
       </c>
       <c r="BE8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG8">
         <v>7</v>
@@ -3350,10 +3394,10 @@
         <v>6</v>
       </c>
       <c r="BE9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG9">
         <v>7</v>
@@ -3685,10 +3729,10 @@
         <v>6</v>
       </c>
       <c r="BE10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG10">
         <v>6</v>
@@ -4020,10 +4064,10 @@
         <v>6</v>
       </c>
       <c r="BE11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG11">
         <v>6</v>
@@ -4355,10 +4399,10 @@
         <v>6</v>
       </c>
       <c r="BE12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG12">
         <v>6</v>
@@ -4690,10 +4734,10 @@
         <v>6</v>
       </c>
       <c r="BE13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG13">
         <v>6</v>
@@ -5025,10 +5069,10 @@
         <v>6</v>
       </c>
       <c r="BE14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG14">
         <v>6</v>
@@ -5360,10 +5404,10 @@
         <v>6</v>
       </c>
       <c r="BE15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG15">
         <v>6</v>
@@ -5695,10 +5739,10 @@
         <v>6</v>
       </c>
       <c r="BE16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG16">
         <v>6</v>
@@ -10532,7 +10576,7 @@
         <v>6</v>
       </c>
       <c r="DB30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DC30">
         <v>2</v>
@@ -10867,7 +10911,7 @@
         <v>6</v>
       </c>
       <c r="DB31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DC31">
         <v>2</v>
@@ -11202,7 +11246,7 @@
         <v>6</v>
       </c>
       <c r="DB32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DC32">
         <v>2</v>
@@ -11722,7 +11766,7 @@
         <v>4</v>
       </c>
       <c r="BD34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BE34">
         <v>4</v>
@@ -11913,7 +11957,7 @@
         <v>5</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I35">
         <v>5</v>
@@ -12057,7 +12101,7 @@
         <v>4</v>
       </c>
       <c r="BD35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BE35">
         <v>4</v>
@@ -12248,7 +12292,7 @@
         <v>5</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I36">
         <v>5</v>
@@ -12386,10 +12430,10 @@
         <v>5</v>
       </c>
       <c r="BB36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD36">
         <v>6</v>
@@ -12583,7 +12627,7 @@
         <v>5</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>5</v>
@@ -12721,10 +12765,10 @@
         <v>5</v>
       </c>
       <c r="BB37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD37">
         <v>6</v>
@@ -12918,7 +12962,7 @@
         <v>5</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>5</v>
@@ -13056,10 +13100,10 @@
         <v>5</v>
       </c>
       <c r="BB38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD38">
         <v>6</v>
@@ -13391,10 +13435,10 @@
         <v>5</v>
       </c>
       <c r="BB39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD39">
         <v>6</v>
@@ -13726,10 +13770,10 @@
         <v>5</v>
       </c>
       <c r="BB40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD40">
         <v>6</v>
@@ -14049,22 +14093,22 @@
         <v>5</v>
       </c>
       <c r="AX41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY41">
         <v>5</v>
       </c>
       <c r="AZ41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA41">
         <v>5</v>
       </c>
       <c r="BB41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD41">
         <v>6</v>
@@ -14381,25 +14425,25 @@
         <v>5</v>
       </c>
       <c r="AW42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA42">
         <v>5</v>
       </c>
       <c r="BB42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD42">
         <v>6</v>
@@ -14713,28 +14757,28 @@
         <v>5</v>
       </c>
       <c r="AV43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA43">
         <v>5</v>
       </c>
       <c r="BB43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD43">
         <v>6</v>
@@ -15051,13 +15095,13 @@
         <v>5</v>
       </c>
       <c r="AW44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ44">
         <v>5</v>
@@ -15066,10 +15110,10 @@
         <v>5</v>
       </c>
       <c r="BB44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD44">
         <v>6</v>
@@ -15389,7 +15433,7 @@
         <v>5</v>
       </c>
       <c r="AX45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY45">
         <v>5</v>
@@ -15401,10 +15445,10 @@
         <v>5</v>
       </c>
       <c r="BB45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD45">
         <v>6</v>
@@ -15736,10 +15780,10 @@
         <v>5</v>
       </c>
       <c r="BB46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD46">
         <v>6</v>
@@ -16071,10 +16115,10 @@
         <v>5</v>
       </c>
       <c r="BB47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD47">
         <v>6</v>
@@ -18817,22 +18861,22 @@
         <v>4</v>
       </c>
       <c r="BX55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BY55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BZ55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CB55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CC55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CD55">
         <v>5</v>
@@ -19152,22 +19196,22 @@
         <v>4</v>
       </c>
       <c r="BX56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BY56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BZ56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CB56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CC56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CD56">
         <v>5</v>
@@ -19191,55 +19235,55 @@
         <v>5</v>
       </c>
       <c r="CK56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DA56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DB56">
         <v>5</v>
@@ -19490,19 +19534,19 @@
         <v>3</v>
       </c>
       <c r="BY57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BZ57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CB57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CC57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CD57">
         <v>5</v>
@@ -19526,55 +19570,55 @@
         <v>5</v>
       </c>
       <c r="CK57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DA57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DB57">
         <v>5</v>
@@ -19822,22 +19866,22 @@
         <v>4</v>
       </c>
       <c r="BX58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BY58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BZ58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CB58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CC58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CD58">
         <v>5</v>
@@ -19852,64 +19896,64 @@
         <v>5</v>
       </c>
       <c r="CH58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CI58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DA58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DB58">
         <v>5</v>
@@ -19956,7 +20000,7 @@
         <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -20157,22 +20201,22 @@
         <v>4</v>
       </c>
       <c r="BX59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BY59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BZ59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CB59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CC59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CD59">
         <v>5</v>
@@ -20187,64 +20231,64 @@
         <v>5</v>
       </c>
       <c r="CH59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CI59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DA59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DB59">
         <v>5</v>
@@ -20291,7 +20335,7 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -20303,19 +20347,19 @@
         <v>1</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R60">
         <v>1</v>
@@ -20492,22 +20536,22 @@
         <v>4</v>
       </c>
       <c r="BX60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BY60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BZ60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CB60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CC60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CD60">
         <v>5</v>
@@ -20522,64 +20566,64 @@
         <v>5</v>
       </c>
       <c r="CH60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CI60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CL60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DA60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DB60">
         <v>5</v>
@@ -20626,7 +20670,7 @@
         <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -20638,7 +20682,7 @@
         <v>1</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -20650,7 +20694,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R61">
         <v>1</v>
@@ -20827,22 +20871,22 @@
         <v>4</v>
       </c>
       <c r="BX61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BY61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BZ61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CB61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CC61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CD61">
         <v>5</v>
@@ -20857,64 +20901,64 @@
         <v>5</v>
       </c>
       <c r="CH61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CI61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CL61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DA61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DB61">
         <v>5</v>
@@ -20961,7 +21005,7 @@
         <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -20973,7 +21017,7 @@
         <v>1</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -20982,7 +21026,7 @@
         <v>1</v>
       </c>
       <c r="P62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -20991,10 +21035,10 @@
         <v>1</v>
       </c>
       <c r="S62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U62">
         <v>3</v>
@@ -21162,22 +21206,22 @@
         <v>4</v>
       </c>
       <c r="BX62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BY62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BZ62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CB62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CC62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CD62">
         <v>5</v>
@@ -21192,64 +21236,64 @@
         <v>5</v>
       </c>
       <c r="CH62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CI62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CL62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CM62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CN62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DA62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DB62">
         <v>5</v>
@@ -21296,7 +21340,7 @@
         <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -21308,7 +21352,7 @@
         <v>1</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -21320,7 +21364,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R63">
         <v>1</v>
@@ -21332,7 +21376,7 @@
         <v>1</v>
       </c>
       <c r="U63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V63">
         <v>1</v>
@@ -21497,22 +21541,22 @@
         <v>4</v>
       </c>
       <c r="BX63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BY63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BZ63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CB63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CC63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CD63">
         <v>5</v>
@@ -21527,64 +21571,64 @@
         <v>5</v>
       </c>
       <c r="CH63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CI63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CL63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CM63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CN63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DA63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DB63">
         <v>5</v>
@@ -21631,7 +21675,7 @@
         <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -21643,7 +21687,7 @@
         <v>1</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -21655,7 +21699,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R64">
         <v>1</v>
@@ -21667,7 +21711,7 @@
         <v>1</v>
       </c>
       <c r="U64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V64">
         <v>1</v>
@@ -21832,22 +21876,22 @@
         <v>4</v>
       </c>
       <c r="BX64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BY64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BZ64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CB64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CC64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CD64">
         <v>5</v>
@@ -21862,64 +21906,64 @@
         <v>5</v>
       </c>
       <c r="CH64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CI64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CL64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CM64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CN64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CO64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DA64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DB64">
         <v>5</v>
@@ -21966,7 +22010,7 @@
         <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -21978,7 +22022,7 @@
         <v>1</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -21990,7 +22034,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R65">
         <v>1</v>
@@ -22002,7 +22046,7 @@
         <v>1</v>
       </c>
       <c r="U65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V65">
         <v>1</v>
@@ -22167,22 +22211,22 @@
         <v>4</v>
       </c>
       <c r="BX65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BY65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BZ65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CB65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CC65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CD65">
         <v>5</v>
@@ -22197,64 +22241,64 @@
         <v>5</v>
       </c>
       <c r="CH65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CI65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CL65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CM65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CN65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CO65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DA65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DB65">
         <v>5</v>
@@ -22301,7 +22345,7 @@
         <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -22313,7 +22357,7 @@
         <v>1</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -22325,7 +22369,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R66">
         <v>1</v>
@@ -22337,7 +22381,7 @@
         <v>1</v>
       </c>
       <c r="U66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V66">
         <v>1</v>
@@ -22532,64 +22576,64 @@
         <v>5</v>
       </c>
       <c r="CH66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CI66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CL66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CM66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CN66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CO66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DA66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DB66">
         <v>5</v>
@@ -22636,7 +22680,7 @@
         <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -22648,7 +22692,7 @@
         <v>1</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -22660,7 +22704,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R67">
         <v>1</v>
@@ -22672,7 +22716,7 @@
         <v>1</v>
       </c>
       <c r="U67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V67">
         <v>1</v>
@@ -22813,10 +22857,10 @@
         <v>5</v>
       </c>
       <c r="BP67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BQ67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BR67">
         <v>5</v>
@@ -22867,64 +22911,64 @@
         <v>5</v>
       </c>
       <c r="CH67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CI67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CL67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CM67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CN67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CO67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DA67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DB67">
         <v>5</v>
@@ -22971,7 +23015,7 @@
         <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -22983,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -22995,7 +23039,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R68">
         <v>1</v>
@@ -23007,7 +23051,7 @@
         <v>1</v>
       </c>
       <c r="U68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V68">
         <v>1</v>
@@ -23148,10 +23192,10 @@
         <v>5</v>
       </c>
       <c r="BP68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BQ68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BR68">
         <v>5</v>
@@ -23166,19 +23210,19 @@
         <v>5</v>
       </c>
       <c r="BV68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BW68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BX68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BY68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BZ68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CA68">
         <v>4</v>
@@ -23187,13 +23231,13 @@
         <v>4</v>
       </c>
       <c r="CC68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CD68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CF68">
         <v>5</v>
@@ -23202,25 +23246,25 @@
         <v>5</v>
       </c>
       <c r="CH68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CI68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CJ68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CL68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CM68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CN68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CO68">
         <v>5</v>
@@ -23306,7 +23350,7 @@
         <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -23318,7 +23362,7 @@
         <v>1</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -23330,7 +23374,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R69">
         <v>1</v>
@@ -23342,7 +23386,7 @@
         <v>1</v>
       </c>
       <c r="U69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V69">
         <v>1</v>
@@ -23480,40 +23524,40 @@
         <v>4</v>
       </c>
       <c r="BO69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BQ69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BR69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BS69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BT69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BU69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BV69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BW69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZ69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CA69">
         <v>4</v>
@@ -23522,25 +23566,25 @@
         <v>4</v>
       </c>
       <c r="CC69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CD69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CE69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CF69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CH69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ69">
         <v>4</v>
@@ -23549,52 +23593,52 @@
         <v>4</v>
       </c>
       <c r="CL69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CM69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CN69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CO69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CQ69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CR69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS69">
         <v>5</v>
       </c>
       <c r="CT69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CU69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CV69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CW69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CX69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CY69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CZ69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DA69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB69">
         <v>5</v>
@@ -23641,7 +23685,7 @@
         <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -23653,7 +23697,7 @@
         <v>1</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -23665,7 +23709,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R70">
         <v>1</v>
@@ -23677,7 +23721,7 @@
         <v>1</v>
       </c>
       <c r="U70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V70">
         <v>1</v>
@@ -23815,67 +23859,67 @@
         <v>4</v>
       </c>
       <c r="BO70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BQ70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BR70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BS70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BT70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BU70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BV70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BW70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZ70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CA70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CD70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CE70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CF70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CH70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ70">
         <v>4</v>
@@ -23884,52 +23928,52 @@
         <v>4</v>
       </c>
       <c r="CL70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CM70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CN70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CO70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CQ70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CR70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS70">
         <v>5</v>
       </c>
       <c r="CT70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CU70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CV70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CW70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CX70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CY70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CZ70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DA70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB70">
         <v>5</v>
@@ -23976,7 +24020,7 @@
         <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -23988,7 +24032,7 @@
         <v>1</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -24000,7 +24044,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R71">
         <v>1</v>
@@ -24012,7 +24056,7 @@
         <v>1</v>
       </c>
       <c r="U71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V71">
         <v>1</v>
@@ -24144,10 +24188,10 @@
         <v>5</v>
       </c>
       <c r="BM71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO71">
         <v>5</v>
@@ -24174,49 +24218,49 @@
         <v>5</v>
       </c>
       <c r="BW71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY71">
         <v>5</v>
       </c>
       <c r="BZ71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CA71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CB71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CD71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CG71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CH71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CI71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CL71">
         <v>5</v>
@@ -24234,37 +24278,37 @@
         <v>5</v>
       </c>
       <c r="CQ71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CR71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS71">
         <v>5</v>
       </c>
       <c r="CT71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CU71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CV71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CW71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CX71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CY71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CZ71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DA71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB71">
         <v>5</v>
@@ -24311,7 +24355,7 @@
         <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -24323,7 +24367,7 @@
         <v>1</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -24335,7 +24379,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R72">
         <v>1</v>
@@ -24347,7 +24391,7 @@
         <v>1</v>
       </c>
       <c r="U72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V72">
         <v>1</v>
@@ -24479,10 +24523,10 @@
         <v>5</v>
       </c>
       <c r="BM72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO72">
         <v>5</v>
@@ -24509,10 +24553,10 @@
         <v>5</v>
       </c>
       <c r="BW72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY72">
         <v>5</v>
@@ -24521,37 +24565,37 @@
         <v>5</v>
       </c>
       <c r="CA72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CB72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CD72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CG72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CH72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CI72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CL72">
         <v>5</v>
@@ -24569,37 +24613,37 @@
         <v>5</v>
       </c>
       <c r="CQ72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CR72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS72">
         <v>5</v>
       </c>
       <c r="CT72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CU72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CV72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CW72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CX72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CY72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CZ72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DA72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB72">
         <v>5</v>
@@ -24646,7 +24690,7 @@
         <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -24658,7 +24702,7 @@
         <v>1</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -24670,7 +24714,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R73">
         <v>1</v>
@@ -24682,7 +24726,7 @@
         <v>1</v>
       </c>
       <c r="U73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V73">
         <v>1</v>
@@ -24814,10 +24858,10 @@
         <v>5</v>
       </c>
       <c r="BM73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO73">
         <v>5</v>
@@ -24844,10 +24888,10 @@
         <v>5</v>
       </c>
       <c r="BW73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY73">
         <v>5</v>
@@ -24856,10 +24900,10 @@
         <v>5</v>
       </c>
       <c r="CA73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CB73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC73">
         <v>5</v>
@@ -24904,37 +24948,37 @@
         <v>5</v>
       </c>
       <c r="CQ73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CR73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS73">
         <v>5</v>
       </c>
       <c r="CT73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CU73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CV73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CW73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CX73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CY73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CZ73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DA73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB73">
         <v>5</v>
@@ -24981,7 +25025,7 @@
         <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -24993,7 +25037,7 @@
         <v>1</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -25005,7 +25049,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R74">
         <v>1</v>
@@ -25017,7 +25061,7 @@
         <v>1</v>
       </c>
       <c r="U74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V74">
         <v>1</v>
@@ -25149,10 +25193,10 @@
         <v>5</v>
       </c>
       <c r="BM74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO74">
         <v>5</v>
@@ -25179,10 +25223,10 @@
         <v>5</v>
       </c>
       <c r="BW74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY74">
         <v>5</v>
@@ -25191,10 +25235,10 @@
         <v>5</v>
       </c>
       <c r="CA74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CB74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC74">
         <v>5</v>
@@ -25239,10 +25283,10 @@
         <v>5</v>
       </c>
       <c r="CQ74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CR74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS74">
         <v>5</v>
@@ -25316,7 +25360,7 @@
         <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -25328,7 +25372,7 @@
         <v>1</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -25340,19 +25384,19 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V75">
         <v>1</v>
@@ -25484,34 +25528,34 @@
         <v>5</v>
       </c>
       <c r="BM75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO75">
         <v>4</v>
       </c>
       <c r="BP75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ75">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BR75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BS75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BT75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BV75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BW75">
         <v>4</v>
@@ -25520,94 +25564,94 @@
         <v>4</v>
       </c>
       <c r="BY75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BZ75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CA75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CD75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CE75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CF75">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="CG75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CH75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CI75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CJ75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CK75">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="CL75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CR75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ75">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC75">
         <v>2</v>
@@ -25651,19 +25695,19 @@
         <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -25819,34 +25863,34 @@
         <v>5</v>
       </c>
       <c r="BM76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO76">
         <v>4</v>
       </c>
       <c r="BP76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ76">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BR76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BS76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BT76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BV76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BW76">
         <v>4</v>
@@ -25855,19 +25899,19 @@
         <v>4</v>
       </c>
       <c r="BY76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BZ76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CA76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CD76">
         <v>1</v>
@@ -25876,7 +25920,7 @@
         <v>1</v>
       </c>
       <c r="CF76">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="CG76">
         <v>1</v>
@@ -25891,7 +25935,7 @@
         <v>1</v>
       </c>
       <c r="CK76">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CL76">
         <v>1</v>
@@ -25909,10 +25953,10 @@
         <v>1</v>
       </c>
       <c r="CQ76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CR76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CS76">
         <v>1</v>
@@ -25927,22 +25971,22 @@
         <v>1</v>
       </c>
       <c r="CW76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ76">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC76">
         <v>2</v>
@@ -26154,10 +26198,10 @@
         <v>5</v>
       </c>
       <c r="BM77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO77">
         <v>3</v>
@@ -26166,43 +26210,43 @@
         <v>3</v>
       </c>
       <c r="BQ77">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BV77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BZ77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CA77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CD77">
         <v>1</v>
@@ -26211,7 +26255,7 @@
         <v>1</v>
       </c>
       <c r="CF77">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="CG77">
         <v>1</v>
@@ -26226,7 +26270,7 @@
         <v>1</v>
       </c>
       <c r="CK77">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CL77">
         <v>1</v>
@@ -26244,10 +26288,10 @@
         <v>1</v>
       </c>
       <c r="CQ77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CR77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CS77">
         <v>1</v>
@@ -26262,22 +26306,22 @@
         <v>1</v>
       </c>
       <c r="CW77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ77">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC77">
         <v>2</v>
@@ -26489,55 +26533,55 @@
         <v>5</v>
       </c>
       <c r="BM78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO78">
         <v>5</v>
       </c>
       <c r="BP78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ78">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BV78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BZ78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CA78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CD78">
         <v>1</v>
@@ -26546,7 +26590,7 @@
         <v>1</v>
       </c>
       <c r="CF78">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="CG78">
         <v>1</v>
@@ -26561,7 +26605,7 @@
         <v>1</v>
       </c>
       <c r="CK78">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CL78">
         <v>1</v>
@@ -26579,10 +26623,10 @@
         <v>1</v>
       </c>
       <c r="CQ78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CR78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CS78">
         <v>1</v>
@@ -26597,22 +26641,22 @@
         <v>1</v>
       </c>
       <c r="CW78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ78">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC78">
         <v>2</v>
@@ -26824,55 +26868,55 @@
         <v>5</v>
       </c>
       <c r="BM79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO79">
         <v>5</v>
       </c>
       <c r="BP79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ79">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BV79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BZ79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CA79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CD79">
         <v>1</v>
@@ -26881,7 +26925,7 @@
         <v>1</v>
       </c>
       <c r="CF79">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="CG79">
         <v>1</v>
@@ -26896,7 +26940,7 @@
         <v>1</v>
       </c>
       <c r="CK79">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CL79">
         <v>1</v>
@@ -26914,10 +26958,10 @@
         <v>1</v>
       </c>
       <c r="CQ79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CR79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CS79">
         <v>1</v>
@@ -26932,22 +26976,22 @@
         <v>1</v>
       </c>
       <c r="CW79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ79">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC79">
         <v>2</v>
@@ -27042,7 +27086,7 @@
         <v>5</v>
       </c>
       <c r="Z80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA80">
         <v>4</v>
@@ -27159,55 +27203,55 @@
         <v>5</v>
       </c>
       <c r="BM80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO80">
         <v>3</v>
       </c>
       <c r="BP80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ80">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BV80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BZ80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CA80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CD80">
         <v>1</v>
@@ -27216,7 +27260,7 @@
         <v>1</v>
       </c>
       <c r="CF80">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="CG80">
         <v>1</v>
@@ -27231,7 +27275,7 @@
         <v>1</v>
       </c>
       <c r="CK80">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CL80">
         <v>1</v>
@@ -27249,10 +27293,10 @@
         <v>1</v>
       </c>
       <c r="CQ80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CR80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CS80">
         <v>1</v>
@@ -27267,22 +27311,22 @@
         <v>1</v>
       </c>
       <c r="CW80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ80">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC80">
         <v>2</v>
@@ -27374,10 +27418,10 @@
         <v>5</v>
       </c>
       <c r="Y81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA81">
         <v>4</v>
@@ -27494,55 +27538,55 @@
         <v>5</v>
       </c>
       <c r="BM81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO81">
         <v>3</v>
       </c>
       <c r="BP81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ81">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BV81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BZ81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CA81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CD81">
         <v>1</v>
@@ -27551,7 +27595,7 @@
         <v>1</v>
       </c>
       <c r="CF81">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="CG81">
         <v>1</v>
@@ -27566,7 +27610,7 @@
         <v>1</v>
       </c>
       <c r="CK81">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CL81">
         <v>1</v>
@@ -27584,10 +27628,10 @@
         <v>1</v>
       </c>
       <c r="CQ81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CR81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CS81">
         <v>1</v>
@@ -27602,22 +27646,22 @@
         <v>1</v>
       </c>
       <c r="CW81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ81">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC81">
         <v>2</v>
@@ -27709,7 +27753,7 @@
         <v>4</v>
       </c>
       <c r="Y82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z82">
         <v>5</v>
@@ -27829,55 +27873,55 @@
         <v>5</v>
       </c>
       <c r="BM82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO82">
         <v>5</v>
       </c>
       <c r="BP82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ82">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BV82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BZ82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CA82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CD82">
         <v>1</v>
@@ -27886,7 +27930,7 @@
         <v>1</v>
       </c>
       <c r="CF82">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="CG82">
         <v>1</v>
@@ -27901,7 +27945,7 @@
         <v>1</v>
       </c>
       <c r="CK82">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CL82">
         <v>1</v>
@@ -27919,10 +27963,10 @@
         <v>1</v>
       </c>
       <c r="CQ82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CR82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CS82">
         <v>1</v>
@@ -27937,22 +27981,22 @@
         <v>1</v>
       </c>
       <c r="CW82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY82">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ82">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC82">
         <v>2</v>
@@ -28104,7 +28148,7 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT83">
         <v>1</v>
@@ -28116,10 +28160,10 @@
         <v>1</v>
       </c>
       <c r="AW83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY83">
         <v>1</v>
@@ -28164,55 +28208,55 @@
         <v>5</v>
       </c>
       <c r="BM83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO83">
         <v>5</v>
       </c>
       <c r="BP83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ83">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BV83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BZ83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CA83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CD83">
         <v>1</v>
@@ -28221,7 +28265,7 @@
         <v>1</v>
       </c>
       <c r="CF83">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="CG83">
         <v>1</v>
@@ -28236,7 +28280,7 @@
         <v>1</v>
       </c>
       <c r="CK83">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CL83">
         <v>1</v>
@@ -28254,10 +28298,10 @@
         <v>1</v>
       </c>
       <c r="CQ83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CR83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CS83">
         <v>1</v>
@@ -28272,22 +28316,22 @@
         <v>1</v>
       </c>
       <c r="CW83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ83">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC83">
         <v>2</v>
@@ -28448,16 +28492,16 @@
         <v>1</v>
       </c>
       <c r="AV84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ84">
         <v>1</v>
@@ -28499,55 +28543,55 @@
         <v>5</v>
       </c>
       <c r="BM84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO84">
         <v>5</v>
       </c>
       <c r="BP84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ84">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BV84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BZ84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CA84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CD84">
         <v>1</v>
@@ -28556,7 +28600,7 @@
         <v>1</v>
       </c>
       <c r="CF84">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="CG84">
         <v>1</v>
@@ -28571,7 +28615,7 @@
         <v>1</v>
       </c>
       <c r="CK84">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="CL84">
         <v>1</v>
@@ -28589,10 +28633,10 @@
         <v>1</v>
       </c>
       <c r="CQ84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CR84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CS84">
         <v>1</v>
@@ -28607,22 +28651,22 @@
         <v>1</v>
       </c>
       <c r="CW84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ84">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB84">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC84">
         <v>2</v>
@@ -28786,10 +28830,10 @@
         <v>1</v>
       </c>
       <c r="AW85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY85">
         <v>1</v>
@@ -28834,64 +28878,64 @@
         <v>5</v>
       </c>
       <c r="BM85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO85">
         <v>5</v>
       </c>
       <c r="BP85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ85">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BR85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BS85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BT85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BU85">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BV85">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BW85">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BX85">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BY85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BZ85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CA85">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="CB85">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="CC85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CD85">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CE85">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CF85">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="CG85">
         <v>1</v>
@@ -28906,58 +28950,58 @@
         <v>1</v>
       </c>
       <c r="CK85">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="CL85">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CM85">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CN85">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CO85">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CP85">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CQ85">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="CR85">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="CS85">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CT85">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CU85">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CV85">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CW85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CX85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CY85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CZ85">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="DA85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC85">
         <v>2</v>
@@ -29169,130 +29213,130 @@
         <v>5</v>
       </c>
       <c r="BM86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN86">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO86">
         <v>5</v>
       </c>
       <c r="BP86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ86">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BV86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BW86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BZ86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CA86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CD86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CE86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CF86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CG86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CH86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CI86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CJ86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CK86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CR86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ86">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC86">
         <v>2</v>
@@ -29504,130 +29548,130 @@
         <v>5</v>
       </c>
       <c r="BM87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO87">
         <v>5</v>
       </c>
       <c r="BP87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ87">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BV87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BW87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BZ87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CA87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CD87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CE87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CF87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CG87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CH87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CI87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CJ87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CK87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CR87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ87">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC87">
         <v>2</v>
@@ -29839,130 +29883,130 @@
         <v>5</v>
       </c>
       <c r="BM88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO88">
         <v>5</v>
       </c>
       <c r="BP88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ88">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BV88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BZ88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CA88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CD88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CE88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CF88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CG88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CH88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CI88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CJ88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CK88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CR88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY88">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ88">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC88">
         <v>2</v>
@@ -30174,46 +30218,46 @@
         <v>5</v>
       </c>
       <c r="BM89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO89">
         <v>5</v>
       </c>
       <c r="BP89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ89">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BV89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BW89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZ89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CA89">
         <v>4</v>
@@ -30222,82 +30266,82 @@
         <v>4</v>
       </c>
       <c r="CC89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CD89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CE89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CF89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CH89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CK89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CL89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CM89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CN89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CO89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CQ89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CR89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CT89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CU89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ89">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC89">
         <v>2</v>
@@ -30389,10 +30433,10 @@
         <v>4</v>
       </c>
       <c r="Y90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA90">
         <v>4</v>
@@ -30509,46 +30553,46 @@
         <v>5</v>
       </c>
       <c r="BM90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO90">
         <v>3</v>
       </c>
       <c r="BP90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ90">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BV90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BW90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZ90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CA90">
         <v>4</v>
@@ -30557,82 +30601,82 @@
         <v>4</v>
       </c>
       <c r="CC90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CD90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CF90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CH90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CK90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CL90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CM90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CN90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CO90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CQ90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CR90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CT90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CU90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ90">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC90">
         <v>2</v>
@@ -30724,10 +30768,10 @@
         <v>4</v>
       </c>
       <c r="Y91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA91">
         <v>4</v>
@@ -30772,61 +30816,61 @@
         <v>5</v>
       </c>
       <c r="AO91">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AP91">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AQ91">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AR91">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AS91">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AT91">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AU91">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AV91">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AW91">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AX91">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AY91">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AZ91">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BA91">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BB91">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BC91">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BD91">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BE91">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BF91">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BG91">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BH91">
         <v>5</v>
@@ -30844,130 +30888,130 @@
         <v>5</v>
       </c>
       <c r="BM91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO91">
         <v>3</v>
       </c>
       <c r="BP91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ91">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BR91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BS91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BT91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BU91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BV91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BX91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BY91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BZ91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CA91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CD91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CE91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CF91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CG91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CH91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI91">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CK91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ91">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC91">
         <v>2</v>
@@ -31125,19 +31169,19 @@
         <v>5</v>
       </c>
       <c r="AU92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY92">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ92">
         <v>5</v>
@@ -31179,130 +31223,130 @@
         <v>5</v>
       </c>
       <c r="BM92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO92">
         <v>4</v>
       </c>
       <c r="BP92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ92">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BR92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BS92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BT92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BV92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BW92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BX92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BY92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BZ92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CA92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CD92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CE92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CF92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CG92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CH92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CI92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CK92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY92">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ92">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC92">
         <v>2</v>
@@ -31514,130 +31558,130 @@
         <v>5</v>
       </c>
       <c r="BM93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO93">
         <v>4</v>
       </c>
       <c r="BP93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ93">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BR93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BS93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BT93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BU93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BV93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BW93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BX93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BY93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BZ93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="CA93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="CB93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="CC93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="CD93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="CE93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="CF93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="CG93">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="CH93">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CI93">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CJ93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CK93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CL93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CM93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CN93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CO93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CP93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CQ93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CR93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CS93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CT93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CU93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CV93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CW93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CX93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CY93">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CZ93">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="DA93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC93">
         <v>2</v>
@@ -31849,130 +31893,130 @@
         <v>5</v>
       </c>
       <c r="BM94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO94">
         <v>4</v>
       </c>
       <c r="BP94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ94">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BR94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BS94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BT94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BV94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BW94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BX94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BY94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BZ94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CA94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CD94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CE94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CF94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CG94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CH94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CK94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ94">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC94">
         <v>2</v>
@@ -32184,130 +32228,130 @@
         <v>4</v>
       </c>
       <c r="BM95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO95">
         <v>4</v>
       </c>
       <c r="BP95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ95">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BR95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BS95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BT95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BV95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BW95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BX95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BY95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BZ95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CA95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CD95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CE95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CF95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CG95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CH95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CJ95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CK95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ95">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC95">
         <v>2</v>
@@ -32519,130 +32563,130 @@
         <v>4</v>
       </c>
       <c r="BM96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO96">
         <v>4</v>
       </c>
       <c r="BP96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ96">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BR96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BS96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BT96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BV96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BW96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BX96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BY96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BZ96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CA96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CD96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CE96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CF96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CG96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CH96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CJ96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CK96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CL96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CM96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CN96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CO96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CQ96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CR96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CT96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CU96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CV96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CW96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CX96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CY96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ96">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC96">
         <v>2</v>
@@ -32854,130 +32898,130 @@
         <v>5</v>
       </c>
       <c r="BM97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO97">
         <v>4</v>
       </c>
       <c r="BP97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ97">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BR97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BS97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BT97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BU97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BV97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BW97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BX97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BY97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BZ97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CA97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CB97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CC97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CD97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CE97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CF97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CG97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CH97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CK97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ97">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC97">
         <v>2</v>
@@ -33189,22 +33233,22 @@
         <v>5</v>
       </c>
       <c r="BM98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BO98">
         <v>4</v>
       </c>
       <c r="BP98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BQ98">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BR98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BS98">
         <v>4</v>
@@ -33252,67 +33296,67 @@
         <v>4</v>
       </c>
       <c r="CH98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CJ98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CK98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ98">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC98">
         <v>2</v>
@@ -33533,121 +33577,121 @@
         <v>5</v>
       </c>
       <c r="BP99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ99">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BV99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BX99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BY99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BZ99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CA99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CB99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CC99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CD99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CE99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CF99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CG99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CH99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CJ99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CK99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ99">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC99">
         <v>2</v>
@@ -33868,121 +33912,121 @@
         <v>5</v>
       </c>
       <c r="BP100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ100">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BT100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BU100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BV100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BW100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BX100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BY100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BZ100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CA100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CB100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CC100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CD100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CE100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CF100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CG100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CH100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CK100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CL100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CM100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CO100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CP100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CQ100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CS100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CT100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CU100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CV100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CW100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CX100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CY100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CZ100">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC100">
         <v>2</v>
@@ -34206,118 +34250,118 @@
         <v>3</v>
       </c>
       <c r="BQ101">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BR101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BS101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BT101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BU101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BV101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BW101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BX101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BY101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BZ101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CA101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CB101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CC101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CD101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CE101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CF101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CG101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CH101">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CI101">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CJ101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CK101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CL101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CM101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CN101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CO101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CP101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CQ101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CR101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CS101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CT101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CU101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CV101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CW101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CX101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CY101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CZ101">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="DA101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC101">
         <v>2</v>
@@ -34538,121 +34582,121 @@
         <v>5</v>
       </c>
       <c r="BP102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BR102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BS102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BT102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BU102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BV102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BW102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BX102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BY102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BZ102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CB102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CC102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CD102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CE102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CF102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CG102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CH102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CK102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CL102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CM102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CN102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CO102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CP102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CQ102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CR102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CS102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CT102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CU102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CV102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CW102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CX102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CY102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CZ102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DA102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC102">
         <v>2</v>
@@ -34873,121 +34917,121 @@
         <v>5</v>
       </c>
       <c r="BP103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BQ103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BR103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BS103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BT103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BU103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BV103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BW103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BX103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BY103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BZ103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CA103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CB103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CC103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CD103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CE103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CF103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CG103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CH103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CK103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CL103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CM103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CN103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CO103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CP103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CQ103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CR103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CS103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CT103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CU103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CV103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CW103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CX103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CY103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CZ103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="DA103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="DB103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="DC103">
         <v>2</v>
@@ -35208,121 +35252,121 @@
         <v>5</v>
       </c>
       <c r="BP104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BQ104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BR104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BS104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BT104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BU104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BV104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BW104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BX104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BY104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZ104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CA104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CB104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CC104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CD104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CE104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CF104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CG104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CH104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CI104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CJ104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CK104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CL104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CM104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CN104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CO104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CP104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CQ104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CR104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CT104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CU104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CV104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CW104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CX104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CY104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CZ104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DA104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DB104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DC104">
         <v>2</v>
@@ -36681,52 +36725,62 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+  <conditionalFormatting sqref="A1:DG108">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="9" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z17:Z108 Y35:Y108 E5:DB104">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:DG108">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>10</formula>
+  <conditionalFormatting sqref="AG5:AG13 BA5:BA13 AA14:BC14">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO13">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG5:AG13 AA14:BC14 BA5:BA13">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+  <conditionalFormatting sqref="CF75:CF83 CZ75:CZ83 BZ84:DB84">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CN83">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/terrain.xlsx
+++ b/data/terrain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melan\Documents\GitHub\COUDERC-HOSTEIN-LANCHA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF98E99-792D-45E2-876B-80CD27D11595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{488A8311-B9EF-40C4-8E70-4859CA3D751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EF96B166-02CE-447C-B2BB-029EF137380B}"/>
   </bookViews>
@@ -61,7 +61,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -157,34 +157,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FFCC6600"/>
         </patternFill>
       </fill>
@@ -509,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F280D1FC-DF26-40C3-B7BD-474909A5227D}">
   <dimension ref="A1:DG108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L11" zoomScale="84" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="AZ95" sqref="AZ95"/>
+    <sheetView tabSelected="1" topLeftCell="AD75" zoomScale="60" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="AJ87" sqref="AJ87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17099,16 +17071,16 @@
         <v>5</v>
       </c>
       <c r="AU50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY50">
         <v>5</v>
@@ -17434,16 +17406,16 @@
         <v>5</v>
       </c>
       <c r="AU51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY51">
         <v>5</v>
@@ -17769,16 +17741,16 @@
         <v>5</v>
       </c>
       <c r="AU52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AW52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY52">
         <v>5</v>
@@ -18104,16 +18076,16 @@
         <v>5</v>
       </c>
       <c r="AU53">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AV53">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AW53">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AX53">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AY53">
         <v>5</v>
@@ -18801,25 +18773,25 @@
         <v>4</v>
       </c>
       <c r="BD55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BE55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BF55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BG55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BH55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BI55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BJ55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BK55">
         <v>1</v>
@@ -18837,22 +18809,22 @@
         <v>1</v>
       </c>
       <c r="BP55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BQ55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BR55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BS55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BT55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BU55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BV55">
         <v>4</v>
@@ -18879,79 +18851,79 @@
         <v>3</v>
       </c>
       <c r="CD55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CE55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CF55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CG55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CH55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CI55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CJ55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CK55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CL55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CM55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CN55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CO55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CP55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CQ55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CR55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CS55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CT55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CU55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CV55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CW55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CX55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CY55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CZ55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="DA55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="DB55">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="DC55">
         <v>2</v>
@@ -24197,10 +24169,10 @@
         <v>5</v>
       </c>
       <c r="BP71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ71">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR71">
         <v>5</v>
@@ -24245,7 +24217,7 @@
         <v>5</v>
       </c>
       <c r="CF71">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="CG71">
         <v>5</v>
@@ -24260,7 +24232,7 @@
         <v>5</v>
       </c>
       <c r="CK71">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="CL71">
         <v>5</v>
@@ -24532,10 +24504,10 @@
         <v>5</v>
       </c>
       <c r="BP72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ72">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR72">
         <v>5</v>
@@ -24580,7 +24552,7 @@
         <v>5</v>
       </c>
       <c r="CF72">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="CG72">
         <v>5</v>
@@ -24595,7 +24567,7 @@
         <v>5</v>
       </c>
       <c r="CK72">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="CL72">
         <v>5</v>
@@ -24867,10 +24839,10 @@
         <v>5</v>
       </c>
       <c r="BP73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ73">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR73">
         <v>5</v>
@@ -24915,7 +24887,7 @@
         <v>5</v>
       </c>
       <c r="CF73">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="CG73">
         <v>5</v>
@@ -24930,7 +24902,7 @@
         <v>5</v>
       </c>
       <c r="CK73">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="CL73">
         <v>5</v>
@@ -25202,10 +25174,10 @@
         <v>5</v>
       </c>
       <c r="BP74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BQ74">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BR74">
         <v>5</v>
@@ -25250,7 +25222,7 @@
         <v>5</v>
       </c>
       <c r="CF74">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="CG74">
         <v>5</v>
@@ -25265,7 +25237,7 @@
         <v>5</v>
       </c>
       <c r="CK74">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="CL74">
         <v>5</v>
@@ -25310,13 +25282,13 @@
         <v>5</v>
       </c>
       <c r="CZ74">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DA74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DB74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DC74">
         <v>2</v>
@@ -25534,7 +25506,7 @@
         <v>5</v>
       </c>
       <c r="BO75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP75">
         <v>3</v>
@@ -25869,7 +25841,7 @@
         <v>5</v>
       </c>
       <c r="BO76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP76">
         <v>3</v>
@@ -28737,22 +28709,22 @@
         <v>5</v>
       </c>
       <c r="R85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S85">
         <v>5</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X85">
         <v>5</v>
@@ -29072,13 +29044,13 @@
         <v>5</v>
       </c>
       <c r="R86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S86">
         <v>5</v>
       </c>
       <c r="T86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U86">
         <v>5</v>
@@ -29087,7 +29059,7 @@
         <v>5</v>
       </c>
       <c r="W86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X86">
         <v>5</v>
@@ -29126,7 +29098,7 @@
         <v>5</v>
       </c>
       <c r="AJ86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK86">
         <v>5</v>
@@ -29407,22 +29379,22 @@
         <v>5</v>
       </c>
       <c r="R87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V87">
         <v>5</v>
       </c>
       <c r="W87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X87">
         <v>5</v>
@@ -29742,22 +29714,22 @@
         <v>5</v>
       </c>
       <c r="R88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T88">
         <v>3</v>
       </c>
       <c r="U88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X88">
         <v>5</v>
@@ -30559,7 +30531,7 @@
         <v>5</v>
       </c>
       <c r="BO90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BP90">
         <v>3</v>
@@ -30894,7 +30866,7 @@
         <v>5</v>
       </c>
       <c r="BO91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BP91">
         <v>3</v>
@@ -31229,7 +31201,7 @@
         <v>5</v>
       </c>
       <c r="BO92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP92">
         <v>3</v>
@@ -31564,7 +31536,7 @@
         <v>5</v>
       </c>
       <c r="BO93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP93">
         <v>3</v>
@@ -31899,7 +31871,7 @@
         <v>5</v>
       </c>
       <c r="BO94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP94">
         <v>3</v>
@@ -32234,7 +32206,7 @@
         <v>5</v>
       </c>
       <c r="BO95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP95">
         <v>3</v>
@@ -32569,7 +32541,7 @@
         <v>5</v>
       </c>
       <c r="BO96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP96">
         <v>3</v>
@@ -32904,7 +32876,7 @@
         <v>5</v>
       </c>
       <c r="BO97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP97">
         <v>3</v>
@@ -33239,7 +33211,7 @@
         <v>5</v>
       </c>
       <c r="BO98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP98">
         <v>3</v>
@@ -36765,12 +36737,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AG13 BA5:BA13 AA14:BC14">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO13">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/terrain.xlsx
+++ b/data/terrain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melan\Documents\GitHub\COUDERC-HOSTEIN-LANCHA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{488A8311-B9EF-40C4-8E70-4859CA3D751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{507503C2-183C-4F2F-9E26-44901B327DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EF96B166-02CE-447C-B2BB-029EF137380B}"/>
   </bookViews>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F280D1FC-DF26-40C3-B7BD-474909A5227D}">
   <dimension ref="A1:DG108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD75" zoomScale="60" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="AJ87" sqref="AJ87"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="17" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="AK98" sqref="AK98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30866,7 +30870,7 @@
         <v>5</v>
       </c>
       <c r="BO91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BP91">
         <v>3</v>
@@ -31120,79 +31124,79 @@
         <v>4</v>
       </c>
       <c r="AN92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BE92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BK92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BL92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BM92">
         <v>5</v>
@@ -31201,7 +31205,7 @@
         <v>5</v>
       </c>
       <c r="BO92">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BP92">
         <v>3</v>
@@ -31356,16 +31360,16 @@
         <v>5</v>
       </c>
       <c r="G93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K93">
         <v>1</v>
@@ -31374,7 +31378,7 @@
         <v>1</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -31383,13 +31387,13 @@
         <v>1</v>
       </c>
       <c r="P93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S93">
         <v>1</v>
@@ -31398,10 +31402,10 @@
         <v>1</v>
       </c>
       <c r="U93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V93">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W93">
         <v>1</v>
@@ -31410,13 +31414,13 @@
         <v>1</v>
       </c>
       <c r="Y93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB93">
         <v>5</v>
@@ -31425,16 +31429,16 @@
         <v>5</v>
       </c>
       <c r="AD93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH93">
         <v>5</v>
@@ -31455,79 +31459,79 @@
         <v>4</v>
       </c>
       <c r="AN93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BE93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BK93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BL93">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BM93">
         <v>5</v>
@@ -31691,16 +31695,16 @@
         <v>5</v>
       </c>
       <c r="G94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -31709,7 +31713,7 @@
         <v>1</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -31721,10 +31725,10 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R94">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S94">
         <v>1</v>
@@ -31733,7 +31737,7 @@
         <v>1</v>
       </c>
       <c r="U94">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V94">
         <v>1</v>
@@ -31745,34 +31749,34 @@
         <v>1</v>
       </c>
       <c r="Y94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB94">
         <v>5</v>
       </c>
       <c r="AC94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI94">
         <v>5</v>
@@ -32026,10 +32030,10 @@
         <v>5</v>
       </c>
       <c r="G95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>5</v>
@@ -32038,13 +32042,13 @@
         <v>5</v>
       </c>
       <c r="K95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -32059,7 +32063,7 @@
         <v>1</v>
       </c>
       <c r="R95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S95">
         <v>1</v>
@@ -32068,7 +32072,7 @@
         <v>1</v>
       </c>
       <c r="U95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V95">
         <v>1</v>
@@ -32077,7 +32081,7 @@
         <v>1</v>
       </c>
       <c r="X95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y95">
         <v>5</v>
@@ -32092,10 +32096,10 @@
         <v>5</v>
       </c>
       <c r="AC95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE95">
         <v>5</v>
@@ -32104,10 +32108,10 @@
         <v>5</v>
       </c>
       <c r="AG95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI95">
         <v>5</v>
@@ -32119,85 +32123,85 @@
         <v>5</v>
       </c>
       <c r="AL95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BK95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BM95">
         <v>5</v>
@@ -32206,7 +32210,7 @@
         <v>5</v>
       </c>
       <c r="BO95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BP95">
         <v>3</v>
@@ -32361,25 +32365,25 @@
         <v>5</v>
       </c>
       <c r="G96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K96">
         <v>1</v>
       </c>
       <c r="L96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -32403,7 +32407,7 @@
         <v>1</v>
       </c>
       <c r="U96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V96">
         <v>1</v>
@@ -32415,10 +32419,10 @@
         <v>1</v>
       </c>
       <c r="Y96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA96">
         <v>5</v>
@@ -32427,10 +32431,10 @@
         <v>5</v>
       </c>
       <c r="AC96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE96">
         <v>5</v>
@@ -32442,7 +32446,7 @@
         <v>5</v>
       </c>
       <c r="AH96">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI96">
         <v>5</v>
@@ -32454,85 +32458,85 @@
         <v>5</v>
       </c>
       <c r="AL96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BK96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BM96">
         <v>5</v>
@@ -32696,25 +32700,25 @@
         <v>5</v>
       </c>
       <c r="G97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K97">
         <v>1</v>
       </c>
       <c r="L97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -32723,7 +32727,7 @@
         <v>1</v>
       </c>
       <c r="P97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -32738,10 +32742,10 @@
         <v>1</v>
       </c>
       <c r="U97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W97">
         <v>1</v>
@@ -32750,34 +32754,34 @@
         <v>1</v>
       </c>
       <c r="Y97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB97">
         <v>5</v>
       </c>
       <c r="AC97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE97">
         <v>5</v>
       </c>
       <c r="AF97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI97">
         <v>5</v>
@@ -32798,19 +32802,19 @@
         <v>5</v>
       </c>
       <c r="AO97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AQ97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AR97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AS97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT97">
         <v>5</v>
@@ -32822,19 +32826,19 @@
         <v>5</v>
       </c>
       <c r="AW97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BA97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB97">
         <v>5</v>
@@ -32846,25 +32850,25 @@
         <v>5</v>
       </c>
       <c r="BE97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BF97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BG97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BH97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BI97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BK97">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BL97">
         <v>5</v>
@@ -33031,10 +33035,10 @@
         <v>5</v>
       </c>
       <c r="G98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>5</v>
@@ -33043,13 +33047,13 @@
         <v>5</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -33058,10 +33062,10 @@
         <v>1</v>
       </c>
       <c r="P98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R98">
         <v>1</v>
@@ -33073,34 +33077,34 @@
         <v>1</v>
       </c>
       <c r="U98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y98">
         <v>5</v>
       </c>
       <c r="Z98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB98">
         <v>5</v>
       </c>
       <c r="AC98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE98">
         <v>5</v>
@@ -33109,10 +33113,10 @@
         <v>5</v>
       </c>
       <c r="AG98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI98">
         <v>5</v>
@@ -33124,79 +33128,79 @@
         <v>5</v>
       </c>
       <c r="AL98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AP98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AQ98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AS98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AT98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU98">
         <v>5</v>
       </c>
       <c r="AV98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BA98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC98">
         <v>5</v>
       </c>
       <c r="BD98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BE98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BF98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BG98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BI98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BJ98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BK98">
         <v>5</v>
@@ -33366,16 +33370,16 @@
         <v>5</v>
       </c>
       <c r="G99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -33384,7 +33388,7 @@
         <v>1</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -33393,13 +33397,13 @@
         <v>1</v>
       </c>
       <c r="P99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S99">
         <v>1</v>
@@ -33408,7 +33412,7 @@
         <v>1</v>
       </c>
       <c r="U99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V99">
         <v>1</v>
@@ -33420,34 +33424,34 @@
         <v>1</v>
       </c>
       <c r="Y99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB99">
         <v>5</v>
       </c>
       <c r="AC99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH99">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI99">
         <v>5</v>
@@ -33465,19 +33469,19 @@
         <v>5</v>
       </c>
       <c r="AN99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS99">
         <v>3</v>
@@ -33486,52 +33490,52 @@
         <v>3</v>
       </c>
       <c r="AU99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC99">
         <v>5</v>
       </c>
       <c r="BD99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BE99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BF99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BK99">
         <v>5</v>
@@ -33701,16 +33705,16 @@
         <v>5</v>
       </c>
       <c r="G100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K100">
         <v>1</v>
@@ -33719,7 +33723,7 @@
         <v>1</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -33728,13 +33732,13 @@
         <v>1</v>
       </c>
       <c r="P100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S100">
         <v>1</v>
@@ -33743,7 +33747,7 @@
         <v>1</v>
       </c>
       <c r="U100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V100">
         <v>1</v>
@@ -33755,10 +33759,10 @@
         <v>1</v>
       </c>
       <c r="Y100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA100">
         <v>5</v>
@@ -33770,16 +33774,16 @@
         <v>5</v>
       </c>
       <c r="AD100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH100">
         <v>5</v>
@@ -33800,73 +33804,73 @@
         <v>5</v>
       </c>
       <c r="AN100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT100">
         <v>3</v>
       </c>
       <c r="AU100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC100">
         <v>5</v>
       </c>
       <c r="BD100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BE100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BK100">
         <v>5</v>
@@ -34048,46 +34052,46 @@
         <v>5</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y101">
         <v>5</v>
@@ -34138,19 +34142,19 @@
         <v>5</v>
       </c>
       <c r="AO101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT101">
         <v>5</v>
@@ -34162,19 +34166,19 @@
         <v>5</v>
       </c>
       <c r="AW101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB101">
         <v>5</v>
@@ -34189,16 +34193,16 @@
         <v>3</v>
       </c>
       <c r="BF101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH101">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ101">
         <v>5</v>
@@ -34383,46 +34387,46 @@
         <v>5</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y102">
         <v>5</v>
@@ -34476,13 +34480,13 @@
         <v>5</v>
       </c>
       <c r="AP102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS102">
         <v>5</v>
@@ -34500,13 +34504,13 @@
         <v>5</v>
       </c>
       <c r="AX102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA102">
         <v>5</v>
@@ -34524,13 +34528,13 @@
         <v>5</v>
       </c>
       <c r="BF102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI102">
         <v>5</v>
@@ -34718,46 +34722,46 @@
         <v>5</v>
       </c>
       <c r="K103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y103">
         <v>5</v>
